--- a/utils/vat_calculator/uk-eu vat rates.xlsx
+++ b/utils/vat_calculator/uk-eu vat rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MickeyYeh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E96C1-50DA-4902-A248-9780A21FE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E42F35-52FD-4A9D-B150-65D833A7550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="6765" windowWidth="19110" windowHeight="11235" xr2:uid="{E5834035-77A5-46A7-8AF6-D087319FD2DB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E5834035-77A5-46A7-8AF6-D087319FD2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3570,6 +3570,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3646,9 +3649,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3668,6 +3670,8 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3990,20 +3994,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4011,7 +4015,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -4019,7 +4023,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
         <v>0.21</v>
       </c>
     </row>
@@ -4027,7 +4031,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -4035,7 +4039,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>0.19</v>
       </c>
     </row>
@@ -4043,7 +4047,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>0.21</v>
       </c>
     </row>
@@ -4051,7 +4055,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <v>0.19</v>
       </c>
     </row>
@@ -4059,7 +4063,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>0.25</v>
       </c>
     </row>
@@ -4067,15 +4071,15 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.22</v>
+      <c r="B9" s="11">
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>0.21</v>
       </c>
     </row>
@@ -4083,15 +4087,15 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.24</v>
+      <c r="B11" s="11">
+        <v>0.255</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -4099,7 +4103,7 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -4107,7 +4111,7 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="11">
         <v>0.24</v>
       </c>
     </row>
@@ -4115,7 +4119,7 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="11">
         <v>0.25</v>
       </c>
     </row>
@@ -4123,7 +4127,7 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="11">
         <v>0.27</v>
       </c>
     </row>
@@ -4131,7 +4135,7 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="11">
         <v>0.23</v>
       </c>
     </row>
@@ -4139,7 +4143,7 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="11">
         <v>0.22</v>
       </c>
     </row>
@@ -4147,7 +4151,7 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="11">
         <v>0.21</v>
       </c>
     </row>
@@ -4155,7 +4159,7 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <v>0.19</v>
       </c>
     </row>
@@ -4163,7 +4167,7 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="11">
         <v>0.21</v>
       </c>
     </row>
@@ -4171,7 +4175,7 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="11">
         <v>0.18</v>
       </c>
     </row>
@@ -4179,7 +4183,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="11">
         <v>0.21</v>
       </c>
     </row>
@@ -4187,7 +4191,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="11">
         <v>0.23</v>
       </c>
     </row>
@@ -4195,7 +4199,7 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="11">
         <v>0.23</v>
       </c>
     </row>
@@ -4203,7 +4207,7 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="11">
         <v>0.19</v>
       </c>
     </row>
@@ -4211,7 +4215,7 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="11">
         <v>0.25</v>
       </c>
     </row>
@@ -4219,7 +4223,7 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="11">
         <v>0.22</v>
       </c>
     </row>
@@ -4227,7 +4231,7 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -4237,6 +4241,7 @@
     <sortCondition ref="A2:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4251,36 +4256,36 @@
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>44482</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
@@ -4288,19 +4293,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>44359</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>12</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>21</v>
       </c>
       <c r="F3" t="s">
@@ -4308,522 +4313,522 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>44329</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>44325</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>44484</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>21</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>22</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>44483</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2.1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>20</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>19</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>44360</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>24</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>44334</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>27</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>4.8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>13.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>21</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>44326</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>21</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>44325</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>21</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>8</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>14</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>44323</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>18</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>9</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>21</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>44324</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>23</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>44360</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>13</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>23</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>44325</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>19</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>10</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>20</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>22</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>4</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>10</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>21</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>44359</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>25</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>20</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4841,7 +4846,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
@@ -4851,23 +4856,23 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4885,7 +4890,7 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>D2/100</f>
         <v>0.2</v>
       </c>
@@ -4904,7 +4909,7 @@
       <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E66" si="0">D3/100</f>
         <v>0.19</v>
       </c>
@@ -4923,7 +4928,7 @@
       <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -4942,7 +4947,7 @@
       <c r="D5">
         <v>21</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
@@ -4961,7 +4966,7 @@
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -4980,7 +4985,7 @@
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -4999,7 +5004,7 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -5018,7 +5023,7 @@
       <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
@@ -5037,7 +5042,7 @@
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -5056,7 +5061,7 @@
       <c r="D11">
         <v>17.5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
@@ -5075,7 +5080,7 @@
       <c r="D12">
         <v>21</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
@@ -5094,7 +5099,7 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5112,7 +5117,7 @@
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -5131,7 +5136,7 @@
       <c r="D15">
         <v>17</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
@@ -5150,7 +5155,7 @@
       <c r="D16">
         <v>14</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -5166,7 +5171,7 @@
       <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5185,7 +5190,7 @@
       <c r="D18">
         <v>20</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -5204,7 +5209,7 @@
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5223,7 +5228,7 @@
       <c r="D20">
         <v>10</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -5242,7 +5247,7 @@
       <c r="D21">
         <v>19.25</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>0.1925</v>
       </c>
@@ -5261,7 +5266,7 @@
       <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5280,7 +5285,7 @@
       <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5298,7 +5303,7 @@
       <c r="D24">
         <v>18</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
@@ -5317,7 +5322,7 @@
       <c r="D25">
         <v>19</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
@@ -5336,7 +5341,7 @@
       <c r="D26">
         <v>13</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -5355,7 +5360,7 @@
       <c r="D27">
         <v>19</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
@@ -5374,7 +5379,7 @@
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
@@ -5393,7 +5398,7 @@
       <c r="D29">
         <v>18.899999999999999</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>0.18899999999999997</v>
       </c>
@@ -5412,7 +5417,7 @@
       <c r="D30">
         <v>13</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -5431,7 +5436,7 @@
       <c r="D31">
         <v>25</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -5450,7 +5455,7 @@
       <c r="D32">
         <v>19</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
@@ -5469,7 +5474,7 @@
       <c r="D33">
         <v>21</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
@@ -5488,7 +5493,7 @@
       <c r="D34">
         <v>25</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -5507,7 +5512,7 @@
       <c r="D35">
         <v>18</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
@@ -5526,7 +5531,7 @@
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -5545,7 +5550,7 @@
       <c r="D37">
         <v>14</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -5564,7 +5569,7 @@
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -5583,7 +5588,7 @@
       <c r="D39">
         <v>15</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5602,7 +5607,7 @@
       <c r="D40">
         <v>20</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -5621,7 +5626,7 @@
       <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5640,7 +5645,7 @@
       <c r="D42">
         <v>15</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5659,7 +5664,7 @@
       <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5678,7 +5683,7 @@
       <c r="D44">
         <v>24</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -5697,7 +5702,7 @@
       <c r="D45">
         <v>20</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -5716,7 +5721,7 @@
       <c r="D46">
         <v>18</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
@@ -5735,7 +5740,7 @@
       <c r="D47">
         <v>18</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
@@ -5754,7 +5759,7 @@
       <c r="D48">
         <v>19</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
@@ -5773,7 +5778,7 @@
       <c r="D49">
         <v>15</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5792,7 +5797,7 @@
       <c r="D50" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5810,7 +5815,7 @@
       <c r="D51">
         <v>24</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -5829,7 +5834,7 @@
       <c r="D52" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5847,7 +5852,7 @@
       <c r="D53">
         <v>12</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -5866,7 +5871,7 @@
       <c r="D54" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5884,7 +5889,7 @@
       <c r="D55">
         <v>14</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -5903,7 +5908,7 @@
       <c r="D56">
         <v>15</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -5922,7 +5927,7 @@
       <c r="D57" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5940,7 +5945,7 @@
       <c r="D58">
         <v>27</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
@@ -5959,7 +5964,7 @@
       <c r="D59">
         <v>24</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -5978,7 +5983,7 @@
       <c r="D60">
         <v>18</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
@@ -5997,7 +6002,7 @@
       <c r="D61">
         <v>11</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
@@ -6016,7 +6021,7 @@
       <c r="D62" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6034,7 +6039,7 @@
       <c r="D63">
         <v>23</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
@@ -6053,7 +6058,7 @@
       <c r="D64">
         <v>20</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -6072,7 +6077,7 @@
       <c r="D65">
         <v>17</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
@@ -6091,7 +6096,7 @@
       <c r="D66">
         <v>22</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
@@ -6110,7 +6115,7 @@
       <c r="D67">
         <v>18</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <f t="shared" ref="E67:E128" si="1">D67/100</f>
         <v>0.18</v>
       </c>
@@ -6129,7 +6134,7 @@
       <c r="D68">
         <v>15</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -6148,7 +6153,7 @@
       <c r="D69">
         <v>10</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -6167,7 +6172,7 @@
       <c r="D70">
         <v>5</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
@@ -6186,7 +6191,7 @@
       <c r="D71">
         <v>16</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -6205,7 +6210,7 @@
       <c r="D72">
         <v>12</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
@@ -6224,7 +6229,7 @@
       <c r="D73">
         <v>16</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -6243,7 +6248,7 @@
       <c r="D74">
         <v>10</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -6262,7 +6267,7 @@
       <c r="D75">
         <v>18</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -6281,7 +6286,7 @@
       <c r="D76" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6299,7 +6304,7 @@
       <c r="D77">
         <v>12</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
@@ -6318,7 +6323,7 @@
       <c r="D78">
         <v>7</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6337,7 +6342,7 @@
       <c r="D79">
         <v>21</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
@@ -6356,7 +6361,7 @@
       <c r="D80">
         <v>11</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
@@ -6375,7 +6380,7 @@
       <c r="D81" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6393,7 +6398,7 @@
       <c r="D82">
         <v>7.7</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <f t="shared" si="1"/>
         <v>7.6999999999999999E-2</v>
       </c>
@@ -6412,7 +6417,7 @@
       <c r="D83">
         <v>21</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
@@ -6431,7 +6436,7 @@
       <c r="D84">
         <v>17</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
@@ -6450,7 +6455,7 @@
       <c r="D85" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6468,7 +6473,7 @@
       <c r="D86">
         <v>20</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -6487,7 +6492,7 @@
       <c r="D87">
         <v>16.5</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <f t="shared" si="1"/>
         <v>0.16500000000000001</v>
       </c>
@@ -6506,7 +6511,7 @@
       <c r="D88">
         <v>10</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -6525,7 +6530,7 @@
       <c r="D89">
         <v>8</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
@@ -6544,7 +6549,7 @@
       <c r="D90">
         <v>18</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -6563,7 +6568,7 @@
       <c r="D91">
         <v>16</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -6582,7 +6587,7 @@
       <c r="D92">
         <v>15</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -6601,7 +6606,7 @@
       <c r="D93">
         <v>16</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -6620,7 +6625,7 @@
       <c r="D94">
         <v>20</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -6639,7 +6644,7 @@
       <c r="D95">
         <v>10</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -6658,7 +6663,7 @@
       <c r="D96">
         <v>21</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="8">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
@@ -6677,7 +6682,7 @@
       <c r="D97">
         <v>20</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="8">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -6696,7 +6701,7 @@
       <c r="D98">
         <v>16</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -6715,7 +6720,7 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6734,7 +6739,7 @@
       <c r="D100">
         <v>15</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -6753,7 +6758,7 @@
       <c r="D101">
         <v>21</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
@@ -6772,7 +6777,7 @@
       <c r="D102">
         <v>15</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -6791,7 +6796,7 @@
       <c r="D103">
         <v>15</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -6810,7 +6815,7 @@
       <c r="D104">
         <v>7.5</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -6829,7 +6834,7 @@
       <c r="D105">
         <v>18</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -6848,7 +6853,7 @@
       <c r="D106">
         <v>25</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="8">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -6867,7 +6872,7 @@
       <c r="D107">
         <v>5</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="8">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
@@ -6886,7 +6891,7 @@
       <c r="D108">
         <v>18</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -6905,7 +6910,7 @@
       <c r="D109">
         <v>16</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
@@ -6924,7 +6929,7 @@
       <c r="D110">
         <v>7</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6943,7 +6948,7 @@
       <c r="D111">
         <v>10</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -6962,7 +6967,7 @@
       <c r="D112">
         <v>10</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -6981,7 +6986,7 @@
       <c r="D113">
         <v>18</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -7000,7 +7005,7 @@
       <c r="D114">
         <v>12</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
@@ -7019,7 +7024,7 @@
       <c r="D115">
         <v>23</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
@@ -7038,7 +7043,7 @@
       <c r="D116">
         <v>23</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
@@ -7057,7 +7062,7 @@
       <c r="D117">
         <v>11.5</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <f t="shared" si="1"/>
         <v>0.115</v>
       </c>
@@ -7076,7 +7081,7 @@
       <c r="D118" t="s">
         <v>68</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7094,7 +7099,7 @@
       <c r="D119">
         <v>19</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="8">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
@@ -7113,7 +7118,7 @@
       <c r="D120">
         <v>18</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -7132,7 +7137,7 @@
       <c r="D121">
         <v>12.5</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="8">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -7151,7 +7156,7 @@
       <c r="D122">
         <v>15</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -7170,7 +7175,7 @@
       <c r="D123">
         <v>18</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="8">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
@@ -7189,7 +7194,7 @@
       <c r="D124">
         <v>20</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="8">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -7208,7 +7213,7 @@
       <c r="D125">
         <v>8</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="8">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
@@ -7227,7 +7232,7 @@
       <c r="D126">
         <v>20</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="8">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -7246,7 +7251,7 @@
       <c r="D127">
         <v>22</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="8">
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
@@ -7265,7 +7270,7 @@
       <c r="D128">
         <v>15</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -7284,7 +7289,7 @@
       <c r="D129">
         <v>21</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="8">
         <f t="shared" ref="E129:E152" si="2">D129/100</f>
         <v>0.21</v>
       </c>
@@ -7303,7 +7308,7 @@
       <c r="D130">
         <v>15</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="8">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
@@ -7322,7 +7327,7 @@
       <c r="D131">
         <v>25</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="8">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -7341,7 +7346,7 @@
       <c r="D132">
         <v>8.1</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="8">
         <f t="shared" si="2"/>
         <v>8.1000000000000003E-2</v>
       </c>
@@ -7360,7 +7365,7 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="8">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -7379,7 +7384,7 @@
       <c r="D134">
         <v>15</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="8">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
@@ -7398,7 +7403,7 @@
       <c r="D135">
         <v>18</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="8">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
@@ -7417,7 +7422,7 @@
       <c r="D136">
         <v>7</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="8">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7436,7 +7441,7 @@
       <c r="D137">
         <v>2.5</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="8">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -7455,7 +7460,7 @@
       <c r="D138">
         <v>12.5</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="8">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
@@ -7474,7 +7479,7 @@
       <c r="D139">
         <v>19</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="8">
         <f t="shared" si="2"/>
         <v>0.19</v>
       </c>
@@ -7493,7 +7498,7 @@
       <c r="D140">
         <v>20</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="8">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -7512,7 +7517,7 @@
       <c r="D141">
         <v>15</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="8">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
@@ -7531,7 +7536,7 @@
       <c r="D142">
         <v>18</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="8">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
@@ -7550,7 +7555,7 @@
       <c r="D143">
         <v>20</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="8">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -7569,7 +7574,7 @@
       <c r="D144">
         <v>5</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="8">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -7588,7 +7593,7 @@
       <c r="D145">
         <v>20</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="8">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -7604,7 +7609,7 @@
       <c r="C146" t="s">
         <v>152</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7622,7 +7627,7 @@
       <c r="D147">
         <v>22</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="8">
         <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
@@ -7641,7 +7646,7 @@
       <c r="D148">
         <v>12</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="8">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
@@ -7660,7 +7665,7 @@
       <c r="D149">
         <v>16</v>
       </c>
-      <c r="E149" s="9">
+      <c r="E149" s="8">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
@@ -7679,7 +7684,7 @@
       <c r="D150">
         <v>10</v>
       </c>
-      <c r="E150" s="9">
+      <c r="E150" s="8">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -7698,7 +7703,7 @@
       <c r="D151">
         <v>16</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="8">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
@@ -7717,7 +7722,7 @@
       <c r="D152">
         <v>15</v>
       </c>
-      <c r="E152" s="9">
+      <c r="E152" s="8">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
@@ -7888,7 +7893,7 @@
   <dimension ref="A1:K250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
@@ -7907,37 +7912,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>169</v>
       </c>
     </row>
